--- a/Modello/nuovi modelli/inputTesiOriginali/Input-Output-4.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/Input-Output-4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test-1" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="47">
   <si>
     <t>ATM/CNS provision costs</t>
   </si>
@@ -354,10 +354,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -931,7 +931,7 @@
       <c r="AJ2" s="4">
         <v>28166</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>75420</v>
       </c>
       <c r="AL2" s="4">
@@ -2822,7 +2822,7 @@
       <c r="AJ2" s="4">
         <v>28166</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>75420</v>
       </c>
       <c r="AL2" s="4">
@@ -4819,7 +4819,7 @@
       <c r="AJ2" s="4">
         <v>28166</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>75420</v>
       </c>
       <c r="AL2" s="4">
@@ -5302,8 +5302,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView topLeftCell="N1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6815,7 +6815,7 @@
       <c r="AJ2" s="4">
         <v>28166</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>75420</v>
       </c>
       <c r="AL2" s="4">
@@ -7569,41 +7569,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:AL9"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AN6" sqref="AN6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="13.21875" customWidth="1"/>
-    <col min="16" max="17" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="9" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="9" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="20.88671875" customWidth="1"/>
+    <col min="37" max="37" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
@@ -7831,7 +7832,7 @@
       <c r="AJ2" s="4">
         <v>28166</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>75420</v>
       </c>
       <c r="AL2" s="4">
@@ -8190,150 +8191,150 @@
       <c r="A6" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="16">
         <f xml:space="preserve"> 1 / (0.5 +B9)</f>
         <v>0.08</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="16">
         <f t="shared" ref="C6:AL6" si="0" xml:space="preserve"> 1 / (0.5 +C9)</f>
         <v>0.4</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="16">
         <f t="shared" si="0"/>
         <v>8.4388185654008432E-3</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="16">
         <f t="shared" si="0"/>
         <v>6.0790273556231003E-3</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>6.4516129032258063E-2</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="16">
         <f t="shared" si="0"/>
         <v>7.7220077220077222E-3</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="16">
         <f t="shared" si="0"/>
         <v>2.3337222870478411E-3</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="16">
         <f t="shared" si="0"/>
         <v>7.0846617074034714E-4</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="16">
         <f t="shared" si="0"/>
         <v>6.8728522336769758E-3</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="16">
         <f t="shared" si="0"/>
         <v>6.5125366330185612E-4</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="16">
         <f t="shared" si="0"/>
         <v>4.878048780487805E-2</v>
       </c>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15">
+      <c r="O6" s="16"/>
+      <c r="P6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="16">
         <f t="shared" si="0"/>
         <v>0.2857142857142857</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="16">
         <f t="shared" si="0"/>
         <v>1.0256410256410256E-2</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="16">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="16">
         <f t="shared" si="0"/>
         <v>3.6363636363636362E-2</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="16">
         <f t="shared" si="0"/>
         <v>1.0810810810810811E-2</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB6" s="16">
         <f t="shared" si="0"/>
         <v>1.680672268907563E-2</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="16">
         <f t="shared" si="0"/>
         <v>6.4308681672025723E-3</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6" s="16">
         <f t="shared" si="0"/>
         <v>3.552397868561279E-3</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AG6" s="15">
+      <c r="AG6" s="16">
         <f t="shared" si="0"/>
         <v>2.8368794326241137E-3</v>
       </c>
-      <c r="AH6" s="15">
+      <c r="AH6" s="16">
         <f t="shared" si="0"/>
         <v>1.9999996000000801</v>
       </c>
-      <c r="AI6" s="15">
+      <c r="AI6" s="16">
         <f t="shared" si="0"/>
         <v>5.7971014492753624E-3</v>
       </c>
-      <c r="AJ6" s="15" t="e">
+      <c r="AJ6" s="16">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AK6" s="15">
+        <v>1.9999996000000801</v>
+      </c>
+      <c r="AK6" s="16">
         <f t="shared" si="0"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="AL6" s="15" t="e">
+      <c r="AL6" s="16">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>1.9999996000000801</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="28.8" x14ac:dyDescent="0.3">
@@ -8447,14 +8448,14 @@
       <c r="AI9" s="6">
         <v>172</v>
       </c>
-      <c r="AJ9" s="6" t="s">
-        <v>45</v>
+      <c r="AJ9" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="AK9" s="6">
         <v>1</v>
       </c>
-      <c r="AL9" s="6" t="s">
-        <v>45</v>
+      <c r="AL9" s="6">
+        <v>9.9999999999999995E-8</v>
       </c>
     </row>
   </sheetData>
@@ -8764,7 +8765,7 @@
       <c r="AJ2" s="4">
         <v>28166</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>75420</v>
       </c>
       <c r="AL2" s="4">
@@ -9244,7 +9245,7 @@
       <c r="AJ2" s="4">
         <v>28166</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>75420</v>
       </c>
       <c r="AL2" s="4">
@@ -9961,7 +9962,7 @@
       <c r="AJ2" s="4">
         <v>28166</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <v>75420</v>
       </c>
       <c r="AL2" s="4">
